--- a/biology/Botanique/Votomita/Votomita.xlsx
+++ b/biology/Botanique/Votomita/Votomita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Votomita est un genre néotropical d'arbre, appartenant à la famille des Melastomataceae (anciennement des Memecylaceae), comportant 10-11 espèces, et dont l'espèce type est Votomita guianensis Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Votomita regroupe des arbres ou des arbustes à feuilles persistantes. 
 Les pétioles sont courts.
@@ -529,7 +543,7 @@
 La placentation est axilaire ou centrale libre ou bien les ovules sont agencés en verticilles autour d'un placenta axilaire ou basal dans chaque loge.
 Le style est persistant ou précocement caduque.
 Le fruit est une baie contenant une graine, couronnée par le calice persistant.
-Les graines sont lisses mais non polies sur la face externe agrandie de l'ovule ; radicule courte et droite, les cotylédons épais, charnus et planconvexes[2].
+Les graines sont lisses mais non polies sur la face externe agrandie de l'ovule ; radicule courte et droite, les cotylédons épais, charnus et planconvexes.
 </t>
         </is>
       </c>
@@ -558,9 +572,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Votomita du Panama au Brésil en passant par Cuba, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane et le Pérou[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Votomita du Panama au Brésil en passant par Cuba, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane et le Pérou.
 </t>
         </is>
       </c>
@@ -589,9 +605,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « VOTOMITA. (Tabula 35.)
 CAL. Perianthium monophyllum, turbinatum, quadridentatum. 
 COR. Petala quatuor, oblonga, acuta, reclinata, diſco inſerta. 
@@ -627,9 +645,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (23 février 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (23 février 2022) :
 Votomita cupuliformis Morley &amp; Almeda
 Votomita guianensis Aubl.
 Votomita monadelpha (Ducke) Morley
@@ -640,7 +660,7 @@
 Votomita pubescens Morley
 Votomita roraimensis Morley
 Votomita ventuarensis Morley
-Selon GBIF       (23 février 2022)[5] :
+Selon GBIF       (23 février 2022) :
 Glossoma acuminatum Wall. ex Benn.
 Votomita cupuliformis Morley &amp; Almeda
 Votomita guianensis Aubl.
